--- a/output/1Y_P58_1VAL-D.xlsx
+++ b/output/1Y_P58_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>14.0702</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>710.722</v>
       </c>
-      <c r="G2" s="1">
-        <v>710.722</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.188399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.0702</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.188399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>13.8476</v>
       </c>
+      <c r="E3" s="1">
+        <v>710.722</v>
+      </c>
       <c r="F3" s="1">
         <v>722.1468</v>
       </c>
-      <c r="G3" s="1">
-        <v>1432.8687</v>
-      </c>
       <c r="H3" s="1">
-        <v>19738.9133</v>
+        <v>9790.763499999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.958</v>
+        <v>9790.763499999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.0702</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19738.9133</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0105</v>
+        <v>-0.0209</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>14.6185</v>
       </c>
+      <c r="E4" s="1">
+        <v>1432.8687</v>
+      </c>
       <c r="F4" s="1">
         <v>684.0647</v>
       </c>
-      <c r="G4" s="1">
-        <v>2116.9335</v>
-      </c>
       <c r="H4" s="1">
-        <v>30785.9283</v>
+        <v>20837.7804</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.1714</v>
+        <v>20837.7804</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.958</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30785.9283</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0352</v>
+        <v>0.0529</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>15.2363</v>
       </c>
+      <c r="E5" s="1">
+        <v>2116.9335</v>
+      </c>
       <c r="F5" s="1">
         <v>656.3273</v>
       </c>
-      <c r="G5" s="1">
-        <v>2773.2608</v>
-      </c>
       <c r="H5" s="1">
-        <v>42035.1457</v>
+        <v>32086.9956</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.4235</v>
+        <v>32086.9956</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.1714</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42035.1457</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0306</v>
+        <v>0.0405</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>15.9097</v>
       </c>
+      <c r="E6" s="1">
+        <v>2773.2608</v>
+      </c>
       <c r="F6" s="1">
         <v>628.5474</v>
       </c>
-      <c r="G6" s="1">
-        <v>3401.8081</v>
-      </c>
       <c r="H6" s="1">
-        <v>53841.0979</v>
+        <v>43892.9531</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.6981</v>
+        <v>43892.9531</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.4235</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53841.0979</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0347</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>15.3909</v>
       </c>
+      <c r="E7" s="1">
+        <v>3401.8081</v>
+      </c>
       <c r="F7" s="1">
         <v>649.7346</v>
       </c>
-      <c r="G7" s="1">
-        <v>4051.5427</v>
-      </c>
       <c r="H7" s="1">
-        <v>62033.5759</v>
+        <v>52085.4248</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.8092</v>
+        <v>52085.4248</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.6981</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62033.5759</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0283</v>
+        <v>-0.0335</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>16.1095</v>
       </c>
+      <c r="E8" s="1">
+        <v>4051.5427</v>
+      </c>
       <c r="F8" s="1">
         <v>620.7517</v>
       </c>
-      <c r="G8" s="1">
-        <v>4672.2945</v>
-      </c>
       <c r="H8" s="1">
-        <v>74878.1911</v>
+        <v>64930.0238</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9819</v>
+        <v>64930.0238</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.8092</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74878.1911</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0395</v>
+        <v>0.0458</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>16.1222</v>
       </c>
+      <c r="E9" s="1">
+        <v>4672.2945</v>
+      </c>
       <c r="F9" s="1">
         <v>620.2627</v>
       </c>
-      <c r="G9" s="1">
-        <v>5292.5572</v>
-      </c>
       <c r="H9" s="1">
-        <v>84885.208</v>
+        <v>74937.06200000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.1156</v>
+        <v>74937.06200000001</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>14.9819</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.2</v>
       </c>
-      <c r="L9" s="1">
-        <v>841.013</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-9158.986999999999</v>
+        <v>729.2777</v>
       </c>
       <c r="O9" s="1">
-        <v>841.013</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>85726.22100000001</v>
+        <v>-9270.722299999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.3453</v>
       </c>
+      <c r="E10" s="1">
+        <v>5292.5572</v>
+      </c>
       <c r="F10" s="1">
-        <v>588.6467</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5881.2039</v>
+        <v>587.0362</v>
       </c>
       <c r="H10" s="1">
-        <v>101481.9374</v>
+        <v>91324.6624</v>
       </c>
       <c r="I10" s="1">
-        <v>90210.2533</v>
+        <v>729.2777</v>
       </c>
       <c r="J10" s="1">
-        <v>15.3387</v>
+        <v>92053.94010000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80182.31939999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.15</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10210.2533</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>630.7598</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>102112.6972</v>
+        <v>-10182.3194</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0667</v>
+        <v>0.0838</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.8769</v>
       </c>
+      <c r="E11" s="1">
+        <v>5879.5934</v>
+      </c>
       <c r="F11" s="1">
-        <v>571.1423</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6452.3462</v>
+        <v>569.5797</v>
       </c>
       <c r="H11" s="1">
-        <v>114749.8145</v>
+        <v>104563.8655</v>
       </c>
       <c r="I11" s="1">
-        <v>100420.5065</v>
+        <v>546.9583</v>
       </c>
       <c r="J11" s="1">
-        <v>15.5634</v>
+        <v>105110.8238</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90364.6388</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.3692</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10210.2533</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>420.5065</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>115170.321</v>
+        <v>-10182.3194</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0273</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,38 +1226,38 @@
       <c r="D12" s="1">
         <v>17.8772</v>
       </c>
+      <c r="E12" s="1">
+        <v>6449.1731</v>
+      </c>
       <c r="F12" s="1">
-        <v>571.1327</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7023.4788</v>
+        <v>569.5701</v>
       </c>
       <c r="H12" s="1">
-        <v>124909.0595</v>
+        <v>114695.3196</v>
       </c>
       <c r="I12" s="1">
-        <v>110630.7598</v>
+        <v>364.6388</v>
       </c>
       <c r="J12" s="1">
-        <v>15.7516</v>
+        <v>115059.9585</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100546.9583</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.5907</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10210.2533</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>210.2533</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>125119.3127</v>
+        <v>-10182.3194</v>
       </c>
       <c r="Q12" s="3">
         <v>-0.0004</v>
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>18.1874</v>
       </c>
+      <c r="E13" s="1">
+        <v>7018.7433</v>
+      </c>
       <c r="F13" s="1">
-        <v>561.3916</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7584.8704</v>
+        <v>559.8557</v>
       </c>
       <c r="H13" s="1">
-        <v>137233.8191</v>
+        <v>126990.8241</v>
       </c>
       <c r="I13" s="1">
-        <v>120841.013</v>
+        <v>182.3194</v>
       </c>
       <c r="J13" s="1">
-        <v>15.9318</v>
+        <v>127173.1435</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110729.2777</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.7762</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10210.2533</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>137233.8191</v>
+        <v>-10182.3194</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0156</v>
+        <v>0.0169</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.6132</v>
       </c>
+      <c r="E14" s="1">
+        <v>7578.599</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7584.8704</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7018.7433</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>132790.6955</v>
       </c>
       <c r="I14" s="1">
-        <v>120841.013</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.9318</v>
+        <v>132790.6955</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110729.2777</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.6108</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>132900.5826</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>132900.5826</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>132900.5826</v>
+        <v>122981.016</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0974</v>
+        <v>-0.0319</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>14.0702</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>710.722</v>
       </c>
       <c r="G2" s="1">
-        <v>710.722</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.188399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.0702</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.188399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>13.8476</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>710.722</v>
       </c>
       <c r="F3" s="1">
         <v>722.1468</v>
       </c>
       <c r="G3" s="1">
-        <v>1432.8687</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19738.9133</v>
+        <v>9790.763499999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.958</v>
+        <v>9790.763499999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.0702</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19738.9133</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0105</v>
+        <v>-0.0209</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>14.6185</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1432.8687</v>
       </c>
       <c r="F4" s="1">
         <v>630.0219</v>
       </c>
       <c r="G4" s="1">
-        <v>2062.8907</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20837.7804</v>
       </c>
       <c r="I4" s="1">
-        <v>29209.9753</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.1597</v>
+        <v>20837.7804</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19209.9753</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.4067</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9209.9753</v>
       </c>
-      <c r="O4" s="1">
-        <v>790.0247000000001</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30790.0247</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0353</v>
+        <v>0.0529</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>15.2363</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2062.8907</v>
       </c>
       <c r="F5" s="1">
         <v>576.1018</v>
       </c>
       <c r="G5" s="1">
-        <v>2638.9924</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31267.8526</v>
       </c>
       <c r="I5" s="1">
-        <v>37987.6347</v>
+        <v>790.0247000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>14.3947</v>
+        <v>32057.8773</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27987.6347</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.5672</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8777.6594</v>
       </c>
-      <c r="O5" s="1">
-        <v>2012.3653</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42012.3653</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.03</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>15.9097</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2638.9924</v>
       </c>
       <c r="F6" s="1">
         <v>520.126</v>
       </c>
       <c r="G6" s="1">
-        <v>3159.1185</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41767.861</v>
       </c>
       <c r="I6" s="1">
-        <v>46262.6841</v>
+        <v>2012.3653</v>
       </c>
       <c r="J6" s="1">
-        <v>14.6442</v>
+        <v>43780.2263</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36262.6841</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.7411</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8275.0494</v>
       </c>
-      <c r="O6" s="1">
-        <v>3737.3159</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53737.3159</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0332</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>15.3909</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3159.1185</v>
       </c>
       <c r="F7" s="1">
         <v>759.6072</v>
       </c>
       <c r="G7" s="1">
-        <v>3918.7256</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>48369.579</v>
       </c>
       <c r="I7" s="1">
-        <v>57953.7218</v>
+        <v>3737.3159</v>
       </c>
       <c r="J7" s="1">
-        <v>14.7889</v>
+        <v>52106.8948</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47953.7218</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.1795</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11691.0377</v>
       </c>
-      <c r="O7" s="1">
-        <v>2046.2782</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62046.2782</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0265</v>
+        <v>-0.0311</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>16.1095</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3918.7256</v>
       </c>
       <c r="F8" s="1">
         <v>449.1765</v>
       </c>
       <c r="G8" s="1">
-        <v>4367.9022</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>62801.497</v>
       </c>
       <c r="I8" s="1">
-        <v>65189.7311</v>
+        <v>2046.2782</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9247</v>
+        <v>64847.7751</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55189.7311</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.0836</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7236.0093</v>
       </c>
-      <c r="O8" s="1">
-        <v>4810.2689</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74810.2689</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0384</v>
+        <v>0.0441</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>16.1222</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4367.9022</v>
       </c>
       <c r="F9" s="1">
         <v>620.0644</v>
       </c>
       <c r="G9" s="1">
-        <v>4987.9665</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>70055.0356</v>
       </c>
       <c r="I9" s="1">
-        <v>75186.53290000001</v>
+        <v>4810.2689</v>
       </c>
       <c r="J9" s="1">
-        <v>15.0736</v>
+        <v>74865.3045</v>
       </c>
       <c r="K9" s="1">
+        <v>65186.5329</v>
+      </c>
+      <c r="L9" s="1">
+        <v>14.924</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.2</v>
       </c>
-      <c r="L9" s="1">
-        <v>786.2224</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-9210.579400000001</v>
+        <v>705.3706</v>
       </c>
       <c r="O9" s="1">
-        <v>5599.6895</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>85599.68949999999</v>
+        <v>-9291.431200000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.009299999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.3453</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4987.9665</v>
       </c>
       <c r="F10" s="1">
         <v>227.8222</v>
       </c>
       <c r="G10" s="1">
-        <v>5215.7888</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>86068.85890000001</v>
       </c>
       <c r="I10" s="1">
-        <v>79138.178</v>
+        <v>5518.8377</v>
       </c>
       <c r="J10" s="1">
-        <v>15.1728</v>
+        <v>91587.6966</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>69138.178</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.861</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-3951.6451</v>
       </c>
-      <c r="O10" s="1">
-        <v>11648.0444</v>
-      </c>
-      <c r="P10" s="1">
-        <v>101648.0444</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0633</v>
+        <v>0.07920000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.8769</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5215.7888</v>
       </c>
       <c r="F11" s="1">
         <v>407.1799</v>
       </c>
       <c r="G11" s="1">
-        <v>5622.9687</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>92758.63069999999</v>
       </c>
       <c r="I11" s="1">
-        <v>86417.2929</v>
+        <v>11567.1926</v>
       </c>
       <c r="J11" s="1">
-        <v>15.3686</v>
+        <v>104325.8233</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>76417.2929</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.6511</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7279.1149</v>
       </c>
-      <c r="O11" s="1">
-        <v>14368.9295</v>
-      </c>
-      <c r="P11" s="1">
-        <v>114368.9295</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0244</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.8772</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5622.9687</v>
       </c>
       <c r="F12" s="1">
         <v>562.1925</v>
       </c>
       <c r="G12" s="1">
-        <v>6185.1612</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>100001.6869</v>
       </c>
       <c r="I12" s="1">
-        <v>96467.7213</v>
+        <v>14288.0777</v>
       </c>
       <c r="J12" s="1">
-        <v>15.5966</v>
+        <v>114289.7646</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>86467.7213</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.3776</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10050.4284</v>
       </c>
-      <c r="O12" s="1">
-        <v>14318.5011</v>
-      </c>
-      <c r="P12" s="1">
-        <v>124318.5011</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0004</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>18.1874</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6185.1612</v>
       </c>
       <c r="F13" s="1">
         <v>447.2014</v>
       </c>
       <c r="G13" s="1">
-        <v>6632.3626</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>111908.7408</v>
       </c>
       <c r="I13" s="1">
-        <v>104601.1516</v>
+        <v>14237.6493</v>
       </c>
       <c r="J13" s="1">
-        <v>15.7713</v>
+        <v>126146.3901</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>94601.1516</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.2949</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-8133.4303</v>
       </c>
-      <c r="O13" s="1">
-        <v>16185.0708</v>
-      </c>
-      <c r="P13" s="1">
-        <v>136185.0708</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0139</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.6132</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6632.3626</v>
       </c>
       <c r="F14" s="1">
         <v>-6632.3626</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116210.9312</v>
       </c>
       <c r="I14" s="1">
-        <v>104601.1516</v>
+        <v>16104.219</v>
       </c>
       <c r="J14" s="1">
-        <v>15.7713</v>
+        <v>132315.1502</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>94601.1516</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.2636</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>116210.9312</v>
       </c>
-      <c r="O14" s="1">
-        <v>132396.002</v>
-      </c>
-      <c r="P14" s="1">
-        <v>132396.002</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.09429999999999999</v>
+        <v>-0.0281</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>14.0702</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>710.722</v>
       </c>
       <c r="G2" s="1">
-        <v>710.722</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.188399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.0702</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.188399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>13.8476</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>710.722</v>
       </c>
       <c r="F3" s="1">
         <v>722.1468</v>
       </c>
       <c r="G3" s="1">
-        <v>1432.8687</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19738.9133</v>
+        <v>9790.763499999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.958</v>
+        <v>9790.763499999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.0702</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19738.9133</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0105</v>
+        <v>-0.0209</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>14.6185</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1432.8687</v>
       </c>
       <c r="F4" s="1">
         <v>640.3536</v>
       </c>
       <c r="G4" s="1">
-        <v>2073.2223</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20837.7804</v>
       </c>
       <c r="I4" s="1">
-        <v>29361.0084</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.162</v>
+        <v>20837.7804</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19361.0084</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.5121</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9361.008400000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>638.9915999999999</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30789.2416</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0353</v>
+        <v>0.0529</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>15.2363</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2073.2223</v>
       </c>
       <c r="F5" s="1">
         <v>585.6286</v>
       </c>
       <c r="G5" s="1">
-        <v>2658.8509</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31424.4524</v>
       </c>
       <c r="I5" s="1">
-        <v>38283.8219</v>
+        <v>638.9915999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>14.3986</v>
+        <v>32063.444</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28283.8219</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.6424</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8922.8135</v>
       </c>
-      <c r="O5" s="1">
-        <v>1716.1781</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42017.1793</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0301</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>15.9097</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2658.8509</v>
       </c>
       <c r="F6" s="1">
         <v>532.0171</v>
       </c>
       <c r="G6" s="1">
-        <v>3190.868</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>42082.1655</v>
       </c>
       <c r="I6" s="1">
-        <v>46748.0541</v>
+        <v>1716.1781</v>
       </c>
       <c r="J6" s="1">
-        <v>14.6506</v>
+        <v>43798.3436</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36748.0541</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.821</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8464.2322</v>
       </c>
-      <c r="O6" s="1">
-        <v>3251.9459</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53754.4522</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0334</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>15.3909</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3190.868</v>
       </c>
       <c r="F7" s="1">
         <v>777.1695</v>
       </c>
       <c r="G7" s="1">
-        <v>3968.0375</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>48855.6993</v>
       </c>
       <c r="I7" s="1">
-        <v>58709.3917</v>
+        <v>3251.9459</v>
       </c>
       <c r="J7" s="1">
-        <v>14.7956</v>
+        <v>52107.6452</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48709.3917</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.2652</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11961.3376</v>
       </c>
-      <c r="O7" s="1">
-        <v>1290.6083</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62045.6271</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0268</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>16.1095</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3968.0375</v>
       </c>
       <c r="F8" s="1">
         <v>465.9319</v>
       </c>
       <c r="G8" s="1">
-        <v>4433.9694</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>63591.7688</v>
       </c>
       <c r="I8" s="1">
-        <v>66215.3221</v>
+        <v>1290.6083</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9336</v>
+        <v>64882.3771</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56215.3221</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.167</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7505.9304</v>
       </c>
-      <c r="O8" s="1">
-        <v>3784.6779</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74843.47169999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0388</v>
+        <v>0.0447</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>16.1222</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4433.9694</v>
       </c>
       <c r="F9" s="1">
         <v>642.1649</v>
       </c>
       <c r="G9" s="1">
-        <v>5076.1343</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>71114.66190000001</v>
       </c>
       <c r="I9" s="1">
-        <v>76568.43309999999</v>
+        <v>3784.6779</v>
       </c>
       <c r="J9" s="1">
-        <v>15.084</v>
+        <v>74899.3398</v>
       </c>
       <c r="K9" s="1">
+        <v>66568.43309999999</v>
+      </c>
+      <c r="L9" s="1">
+        <v>15.0133</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.2</v>
       </c>
-      <c r="L9" s="1">
-        <v>798.1145</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-9554.9964</v>
+        <v>714.2467</v>
       </c>
       <c r="O9" s="1">
-        <v>4229.6814</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>85643.7693</v>
+        <v>-9638.8642</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0094</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.3453</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5076.1343</v>
       </c>
       <c r="F10" s="1">
         <v>245.1964</v>
       </c>
       <c r="G10" s="1">
-        <v>5321.3307</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>87590.2205</v>
       </c>
       <c r="I10" s="1">
-        <v>80821.43859999999</v>
+        <v>4145.8137</v>
       </c>
       <c r="J10" s="1">
-        <v>15.1882</v>
+        <v>91736.0341</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>70821.43859999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.9518</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-4253.0055</v>
       </c>
-      <c r="O10" s="1">
-        <v>9976.6759</v>
-      </c>
-      <c r="P10" s="1">
-        <v>101797.8342</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0643</v>
+        <v>0.0805</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.8769</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5321.3307</v>
       </c>
       <c r="F11" s="1">
         <v>429.8565</v>
       </c>
       <c r="G11" s="1">
-        <v>5751.1872</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>94635.61010000001</v>
       </c>
       <c r="I11" s="1">
-        <v>88505.9402</v>
+        <v>9892.808199999999</v>
       </c>
       <c r="J11" s="1">
-        <v>15.3892</v>
+        <v>104528.4183</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>78505.9402</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.7531</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7684.5017</v>
       </c>
-      <c r="O11" s="1">
-        <v>12292.1743</v>
-      </c>
-      <c r="P11" s="1">
-        <v>114572.4383</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0248</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.8772</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5751.1872</v>
       </c>
       <c r="F12" s="1">
         <v>590.9458</v>
       </c>
       <c r="G12" s="1">
-        <v>6342.1331</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>102281.9894</v>
       </c>
       <c r="I12" s="1">
-        <v>99070.39690000001</v>
+        <v>12208.3065</v>
       </c>
       <c r="J12" s="1">
-        <v>15.621</v>
+        <v>114490.2959</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>89070.39690000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.4873</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10564.4566</v>
       </c>
-      <c r="O12" s="1">
-        <v>11727.7176</v>
-      </c>
-      <c r="P12" s="1">
-        <v>124519.383</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0004</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>18.1874</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6342.1331</v>
       </c>
       <c r="F13" s="1">
         <v>475.6938</v>
       </c>
       <c r="G13" s="1">
-        <v>6817.8269</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>114748.8477</v>
       </c>
       <c r="I13" s="1">
-        <v>107722.0309</v>
+        <v>11643.8499</v>
       </c>
       <c r="J13" s="1">
-        <v>15.8001</v>
+        <v>126392.6975</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>97722.0309</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.4084</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-8651.634</v>
       </c>
-      <c r="O13" s="1">
-        <v>13076.0836</v>
-      </c>
-      <c r="P13" s="1">
-        <v>136431.7073</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0142</v>
+        <v>0.0153</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.6132</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6817.8269</v>
       </c>
       <c r="F14" s="1">
         <v>-6817.8269</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119460.5992</v>
       </c>
       <c r="I14" s="1">
-        <v>107722.0309</v>
+        <v>12992.2159</v>
       </c>
       <c r="J14" s="1">
-        <v>15.8001</v>
+        <v>132452.8151</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>97722.0309</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.3333</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>119460.5992</v>
       </c>
-      <c r="O14" s="1">
-        <v>132536.6828</v>
-      </c>
-      <c r="P14" s="1">
-        <v>132536.6828</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0949</v>
+        <v>-0.0289</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>14.0702</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>710.722</v>
       </c>
       <c r="G2" s="1">
-        <v>710.722</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.188399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.0702</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.188399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>13.8476</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>710.722</v>
       </c>
       <c r="F3" s="1">
         <v>722.1468</v>
       </c>
       <c r="G3" s="1">
-        <v>1432.8687</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19738.9133</v>
+        <v>9790.763499999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.958</v>
+        <v>9790.763499999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.0702</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19738.9133</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0105</v>
+        <v>-0.0209</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>14.6185</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1432.8687</v>
       </c>
       <c r="F4" s="1">
         <v>650.7196</v>
       </c>
       <c r="G4" s="1">
-        <v>2083.5883</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20837.7804</v>
       </c>
       <c r="I4" s="1">
-        <v>29512.5442</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.1643</v>
+        <v>20837.7804</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19512.5442</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.6178</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9512.5442</v>
       </c>
-      <c r="O4" s="1">
-        <v>487.4558</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30788.4558</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0353</v>
+        <v>0.0529</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>15.2363</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2083.5883</v>
       </c>
       <c r="F5" s="1">
         <v>595.2535</v>
       </c>
       <c r="G5" s="1">
-        <v>2678.8419</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31581.5734</v>
       </c>
       <c r="I5" s="1">
-        <v>38582.0058</v>
+        <v>487.4558</v>
       </c>
       <c r="J5" s="1">
-        <v>14.4025</v>
+        <v>32069.0292</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28582.0058</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.7177</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9069.461600000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>1417.9942</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42022.0042</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0302</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>15.9097</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2678.8419</v>
       </c>
       <c r="F6" s="1">
         <v>544.0940000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>3222.9358</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>42398.5662</v>
       </c>
       <c r="I6" s="1">
-        <v>47238.3775</v>
+        <v>1417.9942</v>
       </c>
       <c r="J6" s="1">
-        <v>14.6569</v>
+        <v>43816.5603</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37238.3775</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.9009</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8656.3717</v>
       </c>
-      <c r="O6" s="1">
-        <v>2761.6225</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53771.6726</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0336</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>15.3909</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3222.9358</v>
       </c>
       <c r="F7" s="1">
         <v>795.074</v>
       </c>
       <c r="G7" s="1">
-        <v>4018.0098</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>49346.6929</v>
       </c>
       <c r="I7" s="1">
-        <v>59475.2821</v>
+        <v>2761.6225</v>
       </c>
       <c r="J7" s="1">
-        <v>14.8022</v>
+        <v>52108.3154</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49475.2821</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.351</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-12236.9046</v>
       </c>
-      <c r="O7" s="1">
-        <v>524.7179</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62044.8685</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0271</v>
+        <v>-0.0317</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>16.1095</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4018.0098</v>
       </c>
       <c r="F8" s="1">
         <v>483.1353</v>
       </c>
       <c r="G8" s="1">
-        <v>4501.1451</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>64392.6258</v>
       </c>
       <c r="I8" s="1">
-        <v>67258.3502</v>
+        <v>524.7179</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9425</v>
+        <v>64917.3437</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57258.3502</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.2504</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7783.0681</v>
       </c>
-      <c r="O8" s="1">
-        <v>2741.6498</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74877.0019</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0393</v>
+        <v>0.0452</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>16.1222</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4501.1451</v>
       </c>
       <c r="F9" s="1">
         <v>664.9358</v>
       </c>
       <c r="G9" s="1">
-        <v>5166.0809</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>72192.0665</v>
       </c>
       <c r="I9" s="1">
-        <v>77978.5779</v>
+        <v>2741.6498</v>
       </c>
       <c r="J9" s="1">
-        <v>15.0943</v>
+        <v>74933.7164</v>
       </c>
       <c r="K9" s="1">
+        <v>67978.5779</v>
+      </c>
+      <c r="L9" s="1">
+        <v>15.1025</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.2</v>
       </c>
-      <c r="L9" s="1">
-        <v>810.2061</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-9910.0216</v>
+        <v>723.2418</v>
       </c>
       <c r="O9" s="1">
-        <v>2831.6282</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>85688.3339</v>
+        <v>-9996.986000000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.009599999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.3453</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5166.0809</v>
       </c>
       <c r="F10" s="1">
         <v>263.2812</v>
       </c>
       <c r="G10" s="1">
-        <v>5429.3621</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>89142.2763</v>
       </c>
       <c r="I10" s="1">
-        <v>82545.2696</v>
+        <v>2744.6639</v>
       </c>
       <c r="J10" s="1">
-        <v>15.2035</v>
+        <v>91886.9402</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>72545.2696</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.0426</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-4566.6917</v>
       </c>
-      <c r="O10" s="1">
-        <v>8264.9365</v>
-      </c>
-      <c r="P10" s="1">
-        <v>101950.2092</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0654</v>
+        <v>0.0819</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.8769</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5429.3621</v>
       </c>
       <c r="F11" s="1">
         <v>453.5072</v>
       </c>
       <c r="G11" s="1">
-        <v>5882.8694</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>96556.86229999999</v>
       </c>
       <c r="I11" s="1">
-        <v>90652.57279999999</v>
+        <v>8177.9722</v>
       </c>
       <c r="J11" s="1">
-        <v>15.4096</v>
+        <v>104734.8345</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>80652.57279999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.8549</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-8107.3032</v>
       </c>
-      <c r="O11" s="1">
-        <v>10157.6333</v>
-      </c>
-      <c r="P11" s="1">
-        <v>114779.7588</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0253</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,40 +3522,40 @@
         <v>17.8772</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5882.8694</v>
       </c>
       <c r="F12" s="1">
         <v>621.0159</v>
       </c>
       <c r="G12" s="1">
-        <v>6503.8852</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>104623.8903</v>
       </c>
       <c r="I12" s="1">
-        <v>101754.5973</v>
+        <v>10070.669</v>
       </c>
       <c r="J12" s="1">
-        <v>15.6452</v>
+        <v>114694.5593</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>91754.59729999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.5969</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-11102.0246</v>
-      </c>
-      <c r="O12" s="1">
-        <v>9055.6088</v>
-      </c>
-      <c r="P12" s="1">
-        <v>124723.9554</v>
       </c>
       <c r="Q12" s="3">
         <v>-0.0004</v>
@@ -3596,43 +3575,43 @@
         <v>18.1874</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6503.8852</v>
       </c>
       <c r="F13" s="1">
         <v>505.6947</v>
       </c>
       <c r="G13" s="1">
-        <v>7009.5799</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>117675.4456</v>
       </c>
       <c r="I13" s="1">
-        <v>110951.8688</v>
+        <v>8968.644399999999</v>
       </c>
       <c r="J13" s="1">
-        <v>15.8286</v>
+        <v>126644.0901</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>100951.8688</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.5218</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9197.271500000001</v>
       </c>
-      <c r="O13" s="1">
-        <v>9858.337299999999</v>
-      </c>
-      <c r="P13" s="1">
-        <v>136683.3674</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0145</v>
+        <v>0.0156</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.6132</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7009.5799</v>
       </c>
       <c r="F14" s="1">
         <v>-7009.5799</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122820.4571</v>
       </c>
       <c r="I14" s="1">
-        <v>110951.8688</v>
+        <v>9771.3729</v>
       </c>
       <c r="J14" s="1">
-        <v>15.8286</v>
+        <v>132591.8301</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>100951.8688</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.402</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>122820.4571</v>
       </c>
-      <c r="O14" s="1">
-        <v>132678.7944</v>
-      </c>
-      <c r="P14" s="1">
-        <v>132678.7944</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0955</v>
+        <v>-0.0297</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>14.0702</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>710.722</v>
       </c>
       <c r="G2" s="1">
-        <v>710.722</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.188399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.0702</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.188399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>13.8476</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>710.722</v>
       </c>
       <c r="F3" s="1">
         <v>722.1468</v>
       </c>
       <c r="G3" s="1">
-        <v>1432.8687</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19738.9133</v>
+        <v>9790.763499999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.958</v>
+        <v>9790.763499999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.0702</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19738.9133</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0105</v>
+        <v>-0.0209</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>14.6185</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1432.8687</v>
       </c>
       <c r="F4" s="1">
         <v>661.12</v>
       </c>
       <c r="G4" s="1">
-        <v>2093.9887</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20837.7804</v>
       </c>
       <c r="I4" s="1">
-        <v>29664.5825</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.1665</v>
+        <v>20837.7804</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19664.5825</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.7239</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9664.5825</v>
       </c>
-      <c r="O4" s="1">
-        <v>335.4175</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30787.6675</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0353</v>
+        <v>0.0529</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>15.2363</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2093.9887</v>
       </c>
       <c r="F5" s="1">
         <v>604.977</v>
       </c>
       <c r="G5" s="1">
-        <v>2698.9658</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31739.2155</v>
       </c>
       <c r="I5" s="1">
-        <v>38882.194</v>
+        <v>335.4175</v>
       </c>
       <c r="J5" s="1">
-        <v>14.4063</v>
+        <v>32074.6329</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28882.194</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.7929</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9217.611500000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>1117.806</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42026.8398</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0304</v>
+        <v>0.0401</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>15.9097</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2698.9658</v>
       </c>
       <c r="F6" s="1">
         <v>556.3586</v>
       </c>
       <c r="G6" s="1">
-        <v>3255.3243</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>42717.0709</v>
       </c>
       <c r="I6" s="1">
-        <v>47733.6919</v>
+        <v>1117.806</v>
       </c>
       <c r="J6" s="1">
-        <v>14.6633</v>
+        <v>43834.8769</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37733.6919</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.9808</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8851.4979</v>
       </c>
-      <c r="O6" s="1">
-        <v>2266.3081</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53788.9773</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0339</v>
+        <v>0.0418</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>15.3909</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3255.3243</v>
       </c>
       <c r="F7" s="1">
         <v>796.9845</v>
       </c>
       <c r="G7" s="1">
-        <v>4052.3088</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62045.3051</v>
+        <v>49842.5964</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>2266.3081</v>
       </c>
       <c r="J7" s="1">
-        <v>14.8064</v>
+        <v>52108.9045</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.3595</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-12266.3081</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62045.3051</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0273</v>
+        <v>-0.0321</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>16.1095</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4052.3088</v>
       </c>
       <c r="F8" s="1">
         <v>517.1372</v>
       </c>
       <c r="G8" s="1">
-        <v>4569.446</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>64942.3006</v>
       </c>
       <c r="I8" s="1">
-        <v>68330.8222</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9539</v>
+        <v>64942.3006</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58330.8222</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.3945</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8330.822200000001</v>
       </c>
-      <c r="O8" s="1">
-        <v>1669.1778</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74899.1197</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0396</v>
+        <v>0.0456</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>16.1222</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4569.446</v>
       </c>
       <c r="F9" s="1">
         <v>688.3939</v>
       </c>
       <c r="G9" s="1">
-        <v>5257.8399</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>73287.51700000001</v>
       </c>
       <c r="I9" s="1">
-        <v>79429.2461</v>
+        <v>1669.1778</v>
       </c>
       <c r="J9" s="1">
-        <v>15.1068</v>
+        <v>74956.69469999999</v>
       </c>
       <c r="K9" s="1">
+        <v>69429.2461</v>
+      </c>
+      <c r="L9" s="1">
+        <v>15.1942</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.2</v>
       </c>
-      <c r="L9" s="1">
-        <v>822.5003</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-10275.9236</v>
+        <v>729.4156</v>
       </c>
       <c r="O9" s="1">
-        <v>1393.2542</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>85721.6453</v>
+        <v>-10369.0083</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0097</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.3453</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5257.8399</v>
       </c>
       <c r="F10" s="1">
         <v>282.0995</v>
       </c>
       <c r="G10" s="1">
-        <v>5539.9394</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>90725.60490000001</v>
       </c>
       <c r="I10" s="1">
-        <v>84322.3471</v>
+        <v>1300.1695</v>
       </c>
       <c r="J10" s="1">
-        <v>15.2208</v>
+        <v>92025.77439999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>74322.3471</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.1355</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-4893.101</v>
       </c>
-      <c r="O10" s="1">
-        <v>6500.1532</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102093.4701</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.06660000000000001</v>
+        <v>0.0832</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.8769</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5539.9394</v>
       </c>
       <c r="F11" s="1">
         <v>478.1675</v>
       </c>
       <c r="G11" s="1">
-        <v>6018.1069</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>98523.3909</v>
       </c>
       <c r="I11" s="1">
-        <v>92870.499</v>
+        <v>6407.0685</v>
       </c>
       <c r="J11" s="1">
-        <v>15.4318</v>
+        <v>104930.4594</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>82870.499</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.9587</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-8548.151900000001</v>
       </c>
-      <c r="O11" s="1">
-        <v>7952.0013</v>
-      </c>
-      <c r="P11" s="1">
-        <v>114979.218</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0257</v>
+        <v>0.0285</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.8772</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6018.1069</v>
       </c>
       <c r="F12" s="1">
         <v>652.4559</v>
       </c>
       <c r="G12" s="1">
-        <v>6670.5628</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>107029.0221</v>
       </c>
       <c r="I12" s="1">
-        <v>104534.5845</v>
+        <v>7858.9166</v>
       </c>
       <c r="J12" s="1">
-        <v>15.671</v>
+        <v>114887.9387</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>94534.5845</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.7084</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-11664.0855</v>
       </c>
-      <c r="O12" s="1">
-        <v>6287.9158</v>
-      </c>
-      <c r="P12" s="1">
-        <v>124920.5407</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>18.1874</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6670.5628</v>
       </c>
       <c r="F13" s="1">
         <v>537.2741</v>
       </c>
       <c r="G13" s="1">
-        <v>7207.8369</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>120691.1606</v>
       </c>
       <c r="I13" s="1">
-        <v>114306.2031</v>
+        <v>6194.8311</v>
       </c>
       <c r="J13" s="1">
-        <v>15.8586</v>
+        <v>126885.9917</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>104306.2031</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.6368</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9771.6186</v>
       </c>
-      <c r="O13" s="1">
-        <v>6516.2972</v>
-      </c>
-      <c r="P13" s="1">
-        <v>136928.4115</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0149</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>17.6132</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7207.8369</v>
       </c>
       <c r="F14" s="1">
         <v>-7207.8369</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>126294.2771</v>
       </c>
       <c r="I14" s="1">
-        <v>114306.2031</v>
+        <v>6423.2125</v>
       </c>
       <c r="J14" s="1">
-        <v>15.8586</v>
+        <v>132717.4895</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>104306.2031</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.4712</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>126294.2771</v>
       </c>
-      <c r="O14" s="1">
-        <v>132810.5742</v>
-      </c>
-      <c r="P14" s="1">
-        <v>132810.5742</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0961</v>
+        <v>-0.0305</v>
       </c>
     </row>
   </sheetData>
@@ -4477,7 +4450,7 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.5657</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.9318</v>
+        <v>14.6108</v>
       </c>
       <c r="D3" s="1">
-        <v>15.7713</v>
+        <v>14.2636</v>
       </c>
       <c r="E3" s="1">
-        <v>15.8001</v>
+        <v>14.3333</v>
       </c>
       <c r="F3" s="1">
-        <v>15.8286</v>
+        <v>14.402</v>
       </c>
       <c r="G3" s="1">
-        <v>15.8586</v>
+        <v>14.4712</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2335</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1231</v>
+        <v>0.226</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1159</v>
+        <v>0.2184</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1179</v>
+        <v>0.2205</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1198</v>
+        <v>0.2226</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1216</v>
+        <v>0.2245</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1174</v>
       </c>
       <c r="C5" s="3">
-        <v>0.14</v>
+        <v>0.1221</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1349</v>
+        <v>0.1159</v>
       </c>
       <c r="E5" s="3">
-        <v>0.136</v>
+        <v>0.1173</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1372</v>
+        <v>0.1187</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1384</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.8157</v>
       </c>
       <c r="C6" s="4">
-        <v>0.734</v>
+        <v>1.6846</v>
       </c>
       <c r="D6" s="4">
-        <v>0.7089</v>
+        <v>1.7088</v>
       </c>
       <c r="E6" s="4">
-        <v>0.7171</v>
+        <v>1.7066</v>
       </c>
       <c r="F6" s="4">
-        <v>0.7251</v>
+        <v>1.7042</v>
       </c>
       <c r="G6" s="4">
-        <v>0.7321</v>
+        <v>1.7005</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2048</v>
+        <v>0.0463</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2172</v>
+        <v>0.2156</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2156</v>
+        <v>0.214</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2139</v>
+        <v>0.2123</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2121</v>
+        <v>0.2104</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>841.013</v>
+        <v>729.2777</v>
       </c>
       <c r="D8" s="1">
-        <v>786.2224</v>
+        <v>705.3706</v>
       </c>
       <c r="E8" s="1">
-        <v>798.1145</v>
+        <v>714.2467</v>
       </c>
       <c r="F8" s="1">
-        <v>810.2061</v>
+        <v>723.2418</v>
       </c>
       <c r="G8" s="1">
-        <v>822.5003</v>
+        <v>729.4156</v>
       </c>
     </row>
   </sheetData>
